--- a/DataSet/가구원수당 세대수/2019. 2분기 가구원수당 세대수.xlsx
+++ b/DataSet/가구원수당 세대수/2019. 2분기 가구원수당 세대수.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auteu\Downloads\동별 세대원수별 세대수\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WaRaConv\DataSet\가구원수당 세대수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B82566-C0F0-4443-BBCF-D654242D37A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7807338C-0443-4397-9ECE-4357A31EE729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="390" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="1260" yWindow="1350" windowWidth="23955" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019. 2분기 가구원수당 세대수" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>종로구</t>
   </si>
   <si>
-    <t>소계</t>
-  </si>
-  <si>
     <t>사직동</t>
   </si>
   <si>
@@ -1412,12 +1409,15 @@
   </si>
   <si>
     <t>길동</t>
+  </si>
+  <si>
+    <t>계</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2365,10 +2365,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2468,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D3" s="1">
         <v>73828</v>
@@ -2512,7 +2514,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>4552</v>
@@ -2556,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>1401</v>
@@ -2600,7 +2602,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>4287</v>
@@ -2644,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>7495</v>
@@ -2688,7 +2690,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>3155</v>
@@ -2732,7 +2734,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>4574</v>
@@ -2776,7 +2778,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>2042</v>
@@ -2820,7 +2822,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>5290</v>
@@ -2864,7 +2866,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>3174</v>
@@ -2908,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>4509</v>
@@ -2952,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>2952</v>
@@ -2996,7 +2998,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
         <v>4134</v>
@@ -3040,7 +3042,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>2892</v>
@@ -3084,7 +3086,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1">
         <v>2987</v>
@@ -3128,7 +3130,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>5766</v>
@@ -3172,7 +3174,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>5382</v>
@@ -3216,7 +3218,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>9236</v>
@@ -3257,10 +3259,10 @@
         <v>2019.06</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D21" s="1">
         <v>62156</v>
@@ -3301,10 +3303,10 @@
         <v>2019.06</v>
       </c>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="1">
         <v>1107</v>
@@ -3345,10 +3347,10 @@
         <v>2019.06</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
         <v>3213</v>
@@ -3389,10 +3391,10 @@
         <v>2019.06</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1">
         <v>1415</v>
@@ -3433,10 +3435,10 @@
         <v>2019.06</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
         <v>2303</v>
@@ -3477,10 +3479,10 @@
         <v>2019.06</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
         <v>2694</v>
@@ -3521,10 +3523,10 @@
         <v>2019.06</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1">
         <v>2936</v>
@@ -3565,10 +3567,10 @@
         <v>2019.06</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1">
         <v>1331</v>
@@ -3609,10 +3611,10 @@
         <v>2019.06</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
         <v>4805</v>
@@ -3653,10 +3655,10 @@
         <v>2019.06</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1">
         <v>6739</v>
@@ -3697,10 +3699,10 @@
         <v>2019.06</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1">
         <v>5851</v>
@@ -3741,10 +3743,10 @@
         <v>2019.06</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1">
         <v>4425</v>
@@ -3785,10 +3787,10 @@
         <v>2019.06</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1">
         <v>6931</v>
@@ -3829,10 +3831,10 @@
         <v>2019.06</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1">
         <v>7777</v>
@@ -3873,10 +3875,10 @@
         <v>2019.06</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1">
         <v>6441</v>
@@ -3917,10 +3919,10 @@
         <v>2019.06</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>4188</v>
@@ -3961,10 +3963,10 @@
         <v>2019.06</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D37" s="1">
         <v>109692</v>
@@ -4005,10 +4007,10 @@
         <v>2019.06</v>
       </c>
       <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
         <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
       </c>
       <c r="D38" s="1">
         <v>8557</v>
@@ -4049,10 +4051,10 @@
         <v>2019.06</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1">
         <v>5482</v>
@@ -4093,10 +4095,10 @@
         <v>2019.06</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>5434</v>
@@ -4137,10 +4139,10 @@
         <v>2019.06</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1">
         <v>6019</v>
@@ -4181,10 +4183,10 @@
         <v>2019.06</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1">
         <v>4041</v>
@@ -4225,10 +4227,10 @@
         <v>2019.06</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1">
         <v>5376</v>
@@ -4269,10 +4271,10 @@
         <v>2019.06</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1">
         <v>10267</v>
@@ -4313,10 +4315,10 @@
         <v>2019.06</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
         <v>3867</v>
@@ -4357,10 +4359,10 @@
         <v>2019.06</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1">
         <v>3785</v>
@@ -4401,10 +4403,10 @@
         <v>2019.06</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1">
         <v>4903</v>
@@ -4445,10 +4447,10 @@
         <v>2019.06</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <v>5316</v>
@@ -4489,10 +4491,10 @@
         <v>2019.06</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1">
         <v>7722</v>
@@ -4533,10 +4535,10 @@
         <v>2019.06</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1">
         <v>10678</v>
@@ -4577,10 +4579,10 @@
         <v>2019.06</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1">
         <v>7588</v>
@@ -4621,10 +4623,10 @@
         <v>2019.06</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1">
         <v>9613</v>
@@ -4665,10 +4667,10 @@
         <v>2019.06</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1">
         <v>11044</v>
@@ -4709,10 +4711,10 @@
         <v>2019.06</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D54" s="1">
         <v>136872</v>
@@ -4753,10 +4755,10 @@
         <v>2019.06</v>
       </c>
       <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
         <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
       </c>
       <c r="D55" s="1">
         <v>7631</v>
@@ -4797,10 +4799,10 @@
         <v>2019.06</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1">
         <v>10884</v>
@@ -4841,10 +4843,10 @@
         <v>2019.06</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1">
         <v>7440</v>
@@ -4885,10 +4887,10 @@
         <v>2019.06</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1">
         <v>7322</v>
@@ -4929,10 +4931,10 @@
         <v>2019.06</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1">
         <v>9504</v>
@@ -4973,10 +4975,10 @@
         <v>2019.06</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1">
         <v>6167</v>
@@ -5017,10 +5019,10 @@
         <v>2019.06</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1">
         <v>6630</v>
@@ -5061,10 +5063,10 @@
         <v>2019.06</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1">
         <v>6497</v>
@@ -5105,10 +5107,10 @@
         <v>2019.06</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1">
         <v>7650</v>
@@ -5149,10 +5151,10 @@
         <v>2019.06</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1">
         <v>7047</v>
@@ -5193,10 +5195,10 @@
         <v>2019.06</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1">
         <v>8604</v>
@@ -5237,10 +5239,10 @@
         <v>2019.06</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1">
         <v>5680</v>
@@ -5281,10 +5283,10 @@
         <v>2019.06</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1">
         <v>5580</v>
@@ -5325,10 +5327,10 @@
         <v>2019.06</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1">
         <v>7126</v>
@@ -5369,10 +5371,10 @@
         <v>2019.06</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1">
         <v>11774</v>
@@ -5413,10 +5415,10 @@
         <v>2019.06</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1">
         <v>10347</v>
@@ -5457,10 +5459,10 @@
         <v>2019.06</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1">
         <v>10989</v>
@@ -5501,10 +5503,10 @@
         <v>2019.06</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D72" s="1">
         <v>163914</v>
@@ -5545,10 +5547,10 @@
         <v>2019.06</v>
       </c>
       <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
         <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
       </c>
       <c r="D73" s="1">
         <v>15930</v>
@@ -5589,10 +5591,10 @@
         <v>2019.06</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1">
         <v>10565</v>
@@ -5633,10 +5635,10 @@
         <v>2019.06</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1">
         <v>8031</v>
@@ -5677,10 +5679,10 @@
         <v>2019.06</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1">
         <v>10342</v>
@@ -5721,10 +5723,10 @@
         <v>2019.06</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1">
         <v>8492</v>
@@ -5765,10 +5767,10 @@
         <v>2019.06</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D78" s="1">
         <v>13222</v>
@@ -5809,10 +5811,10 @@
         <v>2019.06</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1">
         <v>6227</v>
@@ -5853,10 +5855,10 @@
         <v>2019.06</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D80" s="1">
         <v>11718</v>
@@ -5897,10 +5899,10 @@
         <v>2019.06</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" s="1">
         <v>11623</v>
@@ -5941,10 +5943,10 @@
         <v>2019.06</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1">
         <v>12172</v>
@@ -5985,10 +5987,10 @@
         <v>2019.06</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="1">
         <v>12039</v>
@@ -6029,10 +6031,10 @@
         <v>2019.06</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84" s="1">
         <v>11463</v>
@@ -6073,10 +6075,10 @@
         <v>2019.06</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1">
         <v>11244</v>
@@ -6117,10 +6119,10 @@
         <v>2019.06</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1">
         <v>11057</v>
@@ -6161,10 +6163,10 @@
         <v>2019.06</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D87" s="1">
         <v>9789</v>
@@ -6205,10 +6207,10 @@
         <v>2019.06</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D88" s="1">
         <v>162851</v>
@@ -6249,10 +6251,10 @@
         <v>2019.06</v>
       </c>
       <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
         <v>101</v>
-      </c>
-      <c r="C89" t="s">
-        <v>102</v>
       </c>
       <c r="D89" s="1">
         <v>6002</v>
@@ -6293,10 +6295,10 @@
         <v>2019.06</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" s="1">
         <v>7083</v>
@@ -6337,10 +6339,10 @@
         <v>2019.06</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="1">
         <v>11471</v>
@@ -6381,10 +6383,10 @@
         <v>2019.06</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1">
         <v>10527</v>
@@ -6425,10 +6427,10 @@
         <v>2019.06</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D93" s="1">
         <v>16960</v>
@@ -6469,10 +6471,10 @@
         <v>2019.06</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D94" s="1">
         <v>13045</v>
@@ -6513,10 +6515,10 @@
         <v>2019.06</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1">
         <v>14930</v>
@@ -6557,10 +6559,10 @@
         <v>2019.06</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1">
         <v>7756</v>
@@ -6601,10 +6603,10 @@
         <v>2019.06</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1">
         <v>12654</v>
@@ -6645,10 +6647,10 @@
         <v>2019.06</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1">
         <v>12695</v>
@@ -6689,10 +6691,10 @@
         <v>2019.06</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D99" s="1">
         <v>17430</v>
@@ -6733,10 +6735,10 @@
         <v>2019.06</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D100" s="1">
         <v>13045</v>
@@ -6777,10 +6779,10 @@
         <v>2019.06</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D101" s="1">
         <v>10806</v>
@@ -6821,10 +6823,10 @@
         <v>2019.06</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D102" s="1">
         <v>8447</v>
@@ -6865,10 +6867,10 @@
         <v>2019.06</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D103" s="1">
         <v>181383</v>
@@ -6909,10 +6911,10 @@
         <v>2019.06</v>
       </c>
       <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
         <v>116</v>
-      </c>
-      <c r="C104" t="s">
-        <v>117</v>
       </c>
       <c r="D104" s="1">
         <v>12218</v>
@@ -6953,10 +6955,10 @@
         <v>2019.06</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D105" s="1">
         <v>9343</v>
@@ -6997,10 +6999,10 @@
         <v>2019.06</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D106" s="1">
         <v>4579</v>
@@ -7041,10 +7043,10 @@
         <v>2019.06</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1">
         <v>10086</v>
@@ -7085,10 +7087,10 @@
         <v>2019.06</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D108" s="1">
         <v>10177</v>
@@ -7129,10 +7131,10 @@
         <v>2019.06</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D109" s="1">
         <v>10608</v>
@@ -7173,10 +7175,10 @@
         <v>2019.06</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D110" s="1">
         <v>8980</v>
@@ -7217,10 +7219,10 @@
         <v>2019.06</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D111" s="1">
         <v>14409</v>
@@ -7261,10 +7263,10 @@
         <v>2019.06</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D112" s="1">
         <v>14578</v>
@@ -7305,10 +7307,10 @@
         <v>2019.06</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113" s="1">
         <v>9200</v>
@@ -7349,10 +7351,10 @@
         <v>2019.06</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D114" s="1">
         <v>8482</v>
@@ -7393,10 +7395,10 @@
         <v>2019.06</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D115" s="1">
         <v>14711</v>
@@ -7437,10 +7439,10 @@
         <v>2019.06</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D116" s="1">
         <v>9065</v>
@@ -7481,10 +7483,10 @@
         <v>2019.06</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" s="1">
         <v>17588</v>
@@ -7525,10 +7527,10 @@
         <v>2019.06</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="1">
         <v>12584</v>
@@ -7569,10 +7571,10 @@
         <v>2019.06</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D119" s="1">
         <v>14775</v>
@@ -7613,10 +7615,10 @@
         <v>2019.06</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D120" s="1">
         <v>190253</v>
@@ -7657,10 +7659,10 @@
         <v>2019.06</v>
       </c>
       <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
         <v>133</v>
-      </c>
-      <c r="C121" t="s">
-        <v>134</v>
       </c>
       <c r="D121" s="1">
         <v>6326</v>
@@ -7701,10 +7703,10 @@
         <v>2019.06</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" s="1">
         <v>8573</v>
@@ -7745,10 +7747,10 @@
         <v>2019.06</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D123" s="1">
         <v>9065</v>
@@ -7789,10 +7791,10 @@
         <v>2019.06</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" s="1">
         <v>7958</v>
@@ -7833,10 +7835,10 @@
         <v>2019.06</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125" s="1">
         <v>7426</v>
@@ -7877,10 +7879,10 @@
         <v>2019.06</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D126" s="1">
         <v>9656</v>
@@ -7921,10 +7923,10 @@
         <v>2019.06</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D127" s="1">
         <v>7753</v>
@@ -7965,10 +7967,10 @@
         <v>2019.06</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" s="1">
         <v>11005</v>
@@ -8009,10 +8011,10 @@
         <v>2019.06</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D129" s="1">
         <v>12867</v>
@@ -8053,10 +8055,10 @@
         <v>2019.06</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" s="1">
         <v>6683</v>
@@ -8097,10 +8099,10 @@
         <v>2019.06</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D131" s="1">
         <v>10767</v>
@@ -8141,10 +8143,10 @@
         <v>2019.06</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" s="1">
         <v>9116</v>
@@ -8185,10 +8187,10 @@
         <v>2019.06</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" s="1">
         <v>9026</v>
@@ -8229,10 +8231,10 @@
         <v>2019.06</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D134" s="1">
         <v>6348</v>
@@ -8273,10 +8275,10 @@
         <v>2019.06</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" s="1">
         <v>4830</v>
@@ -8317,10 +8319,10 @@
         <v>2019.06</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D136" s="1">
         <v>8038</v>
@@ -8361,10 +8363,10 @@
         <v>2019.06</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" s="1">
         <v>12683</v>
@@ -8405,10 +8407,10 @@
         <v>2019.06</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D138" s="1">
         <v>9038</v>
@@ -8449,10 +8451,10 @@
         <v>2019.06</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D139" s="1">
         <v>17141</v>
@@ -8493,10 +8495,10 @@
         <v>2019.06</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D140" s="1">
         <v>15954</v>
@@ -8537,10 +8539,10 @@
         <v>2019.06</v>
       </c>
       <c r="B141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D141" s="1">
         <v>143650</v>
@@ -8581,10 +8583,10 @@
         <v>2019.06</v>
       </c>
       <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
         <v>154</v>
-      </c>
-      <c r="C142" t="s">
-        <v>155</v>
       </c>
       <c r="D142" s="1">
         <v>10277</v>
@@ -8625,10 +8627,10 @@
         <v>2019.06</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D143" s="1">
         <v>7611</v>
@@ -8669,10 +8671,10 @@
         <v>2019.06</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D144" s="1">
         <v>7616</v>
@@ -8713,10 +8715,10 @@
         <v>2019.06</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D145" s="1">
         <v>10339</v>
@@ -8757,10 +8759,10 @@
         <v>2019.06</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146" s="1">
         <v>9551</v>
@@ -8801,10 +8803,10 @@
         <v>2019.06</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" s="1">
         <v>12674</v>
@@ -8845,10 +8847,10 @@
         <v>2019.06</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" s="1">
         <v>11610</v>
@@ -8889,10 +8891,10 @@
         <v>2019.06</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D149" s="1">
         <v>11341</v>
@@ -8933,10 +8935,10 @@
         <v>2019.06</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" s="1">
         <v>12985</v>
@@ -8977,10 +8979,10 @@
         <v>2019.06</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D151" s="1">
         <v>13760</v>
@@ -9021,10 +9023,10 @@
         <v>2019.06</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D152" s="1">
         <v>11813</v>
@@ -9065,10 +9067,10 @@
         <v>2019.06</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D153" s="1">
         <v>9477</v>
@@ -9109,10 +9111,10 @@
         <v>2019.06</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D154" s="1">
         <v>14596</v>
@@ -9153,10 +9155,10 @@
         <v>2019.06</v>
       </c>
       <c r="B155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D155" s="1">
         <v>138460</v>
@@ -9197,10 +9199,10 @@
         <v>2019.06</v>
       </c>
       <c r="B156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" t="s">
         <v>168</v>
-      </c>
-      <c r="C156" t="s">
-        <v>169</v>
       </c>
       <c r="D156" s="1">
         <v>9273</v>
@@ -9241,10 +9243,10 @@
         <v>2019.06</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D157" s="1">
         <v>8631</v>
@@ -9285,10 +9287,10 @@
         <v>2019.06</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D158" s="1">
         <v>7811</v>
@@ -9329,10 +9331,10 @@
         <v>2019.06</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" s="1">
         <v>7158</v>
@@ -9373,10 +9375,10 @@
         <v>2019.06</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D160" s="1">
         <v>12845</v>
@@ -9417,10 +9419,10 @@
         <v>2019.06</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D161" s="1">
         <v>9538</v>
@@ -9461,10 +9463,10 @@
         <v>2019.06</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D162" s="1">
         <v>10094</v>
@@ -9505,10 +9507,10 @@
         <v>2019.06</v>
       </c>
       <c r="B163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D163" s="1">
         <v>10958</v>
@@ -9549,10 +9551,10 @@
         <v>2019.06</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D164" s="1">
         <v>12409</v>
@@ -9593,10 +9595,10 @@
         <v>2019.06</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D165" s="1">
         <v>6681</v>
@@ -9637,10 +9639,10 @@
         <v>2019.06</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D166" s="1">
         <v>10615</v>
@@ -9681,10 +9683,10 @@
         <v>2019.06</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D167" s="1">
         <v>10027</v>
@@ -9725,10 +9727,10 @@
         <v>2019.06</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D168" s="1">
         <v>10244</v>
@@ -9769,10 +9771,10 @@
         <v>2019.06</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D169" s="1">
         <v>12176</v>
@@ -9813,10 +9815,10 @@
         <v>2019.06</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D170" s="1">
         <v>217462</v>
@@ -9857,10 +9859,10 @@
         <v>2019.06</v>
       </c>
       <c r="B171" t="s">
+        <v>182</v>
+      </c>
+      <c r="C171" t="s">
         <v>183</v>
-      </c>
-      <c r="C171" t="s">
-        <v>184</v>
       </c>
       <c r="D171" s="1">
         <v>10493</v>
@@ -9901,10 +9903,10 @@
         <v>2019.06</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D172" s="1">
         <v>11271</v>
@@ -9945,10 +9947,10 @@
         <v>2019.06</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D173" s="1">
         <v>13009</v>
@@ -9989,10 +9991,10 @@
         <v>2019.06</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D174" s="1">
         <v>16307</v>
@@ -10033,10 +10035,10 @@
         <v>2019.06</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D175" s="1">
         <v>12413</v>
@@ -10077,10 +10079,10 @@
         <v>2019.06</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D176" s="1">
         <v>8288</v>
@@ -10121,10 +10123,10 @@
         <v>2019.06</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D177" s="1">
         <v>9107</v>
@@ -10165,10 +10167,10 @@
         <v>2019.06</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D178" s="1">
         <v>9100</v>
@@ -10209,10 +10211,10 @@
         <v>2019.06</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D179" s="1">
         <v>8480</v>
@@ -10253,10 +10255,10 @@
         <v>2019.06</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D180" s="1">
         <v>15601</v>
@@ -10297,10 +10299,10 @@
         <v>2019.06</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D181" s="1">
         <v>8769</v>
@@ -10341,10 +10343,10 @@
         <v>2019.06</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D182" s="1">
         <v>11024</v>
@@ -10385,10 +10387,10 @@
         <v>2019.06</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D183" s="1">
         <v>9286</v>
@@ -10429,10 +10431,10 @@
         <v>2019.06</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D184" s="1">
         <v>8471</v>
@@ -10473,10 +10475,10 @@
         <v>2019.06</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D185" s="1">
         <v>6615</v>
@@ -10517,10 +10519,10 @@
         <v>2019.06</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D186" s="1">
         <v>11624</v>
@@ -10561,10 +10563,10 @@
         <v>2019.06</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C187" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D187" s="1">
         <v>14033</v>
@@ -10605,10 +10607,10 @@
         <v>2019.06</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D188" s="1">
         <v>15449</v>
@@ -10649,10 +10651,10 @@
         <v>2019.06</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D189" s="1">
         <v>18122</v>
@@ -10693,10 +10695,10 @@
         <v>2019.06</v>
       </c>
       <c r="B190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D190" s="1">
         <v>207123</v>
@@ -10737,10 +10739,10 @@
         <v>2019.06</v>
       </c>
       <c r="B191" t="s">
+        <v>202</v>
+      </c>
+      <c r="C191" t="s">
         <v>203</v>
-      </c>
-      <c r="C191" t="s">
-        <v>204</v>
       </c>
       <c r="D191" s="1">
         <v>16862</v>
@@ -10781,10 +10783,10 @@
         <v>2019.06</v>
       </c>
       <c r="B192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C192" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D192" s="1">
         <v>17815</v>
@@ -10825,10 +10827,10 @@
         <v>2019.06</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C193" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D193" s="1">
         <v>11188</v>
@@ -10869,10 +10871,10 @@
         <v>2019.06</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D194" s="1">
         <v>12576</v>
@@ -10913,10 +10915,10 @@
         <v>2019.06</v>
       </c>
       <c r="B195" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D195" s="1">
         <v>13068</v>
@@ -10957,10 +10959,10 @@
         <v>2019.06</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D196" s="1">
         <v>15557</v>
@@ -11001,10 +11003,10 @@
         <v>2019.06</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D197" s="1">
         <v>11344</v>
@@ -11045,10 +11047,10 @@
         <v>2019.06</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D198" s="1">
         <v>8783</v>
@@ -11089,10 +11091,10 @@
         <v>2019.06</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D199" s="1">
         <v>11724</v>
@@ -11133,10 +11135,10 @@
         <v>2019.06</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D200" s="1">
         <v>9207</v>
@@ -11177,10 +11179,10 @@
         <v>2019.06</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D201" s="1">
         <v>6949</v>
@@ -11221,10 +11223,10 @@
         <v>2019.06</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D202" s="1">
         <v>3966</v>
@@ -11265,10 +11267,10 @@
         <v>2019.06</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D203" s="1">
         <v>20954</v>
@@ -11309,10 +11311,10 @@
         <v>2019.06</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D204" s="1">
         <v>13766</v>
@@ -11353,10 +11355,10 @@
         <v>2019.06</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D205" s="1">
         <v>12580</v>
@@ -11397,10 +11399,10 @@
         <v>2019.06</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D206" s="1">
         <v>20784</v>
@@ -11441,10 +11443,10 @@
         <v>2019.06</v>
       </c>
       <c r="B207" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D207" s="1">
         <v>140007</v>
@@ -11485,10 +11487,10 @@
         <v>2019.06</v>
       </c>
       <c r="B208" t="s">
+        <v>219</v>
+      </c>
+      <c r="C208" t="s">
         <v>220</v>
-      </c>
-      <c r="C208" t="s">
-        <v>221</v>
       </c>
       <c r="D208" s="1">
         <v>8216</v>
@@ -11529,10 +11531,10 @@
         <v>2019.06</v>
       </c>
       <c r="B209" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C209" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D209" s="1">
         <v>10270</v>
@@ -11573,10 +11575,10 @@
         <v>2019.06</v>
       </c>
       <c r="B210" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C210" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D210" s="1">
         <v>7116</v>
@@ -11617,10 +11619,10 @@
         <v>2019.06</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C211" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D211" s="1">
         <v>5863</v>
@@ -11661,10 +11663,10 @@
         <v>2019.06</v>
       </c>
       <c r="B212" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C212" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D212" s="1">
         <v>9355</v>
@@ -11705,10 +11707,10 @@
         <v>2019.06</v>
       </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D213" s="1">
         <v>12163</v>
@@ -11749,10 +11751,10 @@
         <v>2019.06</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D214" s="1">
         <v>6124</v>
@@ -11793,10 +11795,10 @@
         <v>2019.06</v>
       </c>
       <c r="B215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C215" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D215" s="1">
         <v>11218</v>
@@ -11837,10 +11839,10 @@
         <v>2019.06</v>
       </c>
       <c r="B216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D216" s="1">
         <v>7021</v>
@@ -11881,10 +11883,10 @@
         <v>2019.06</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D217" s="1">
         <v>14762</v>
@@ -11925,10 +11927,10 @@
         <v>2019.06</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D218" s="1">
         <v>8843</v>
@@ -11969,10 +11971,10 @@
         <v>2019.06</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D219" s="1">
         <v>7567</v>
@@ -12013,10 +12015,10 @@
         <v>2019.06</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D220" s="1">
         <v>12354</v>
@@ -12057,10 +12059,10 @@
         <v>2019.06</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D221" s="1">
         <v>19135</v>
@@ -12101,10 +12103,10 @@
         <v>2019.06</v>
       </c>
       <c r="B222" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C222" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D222" s="1">
         <v>173845</v>
@@ -12145,10 +12147,10 @@
         <v>2019.06</v>
       </c>
       <c r="B223" t="s">
+        <v>234</v>
+      </c>
+      <c r="C223" t="s">
         <v>235</v>
-      </c>
-      <c r="C223" t="s">
-        <v>236</v>
       </c>
       <c r="D223" s="1">
         <v>9163</v>
@@ -12189,10 +12191,10 @@
         <v>2019.06</v>
       </c>
       <c r="B224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D224" s="1">
         <v>7146</v>
@@ -12233,10 +12235,10 @@
         <v>2019.06</v>
       </c>
       <c r="B225" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C225" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D225" s="1">
         <v>5722</v>
@@ -12277,10 +12279,10 @@
         <v>2019.06</v>
       </c>
       <c r="B226" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D226" s="1">
         <v>9185</v>
@@ -12321,10 +12323,10 @@
         <v>2019.06</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C227" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D227" s="1">
         <v>14079</v>
@@ -12365,10 +12367,10 @@
         <v>2019.06</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D228" s="1">
         <v>9578</v>
@@ -12409,10 +12411,10 @@
         <v>2019.06</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D229" s="1">
         <v>10705</v>
@@ -12453,10 +12455,10 @@
         <v>2019.06</v>
       </c>
       <c r="B230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D230" s="1">
         <v>8250</v>
@@ -12497,10 +12499,10 @@
         <v>2019.06</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C231" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D231" s="1">
         <v>8670</v>
@@ -12541,10 +12543,10 @@
         <v>2019.06</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D232" s="1">
         <v>9345</v>
@@ -12585,10 +12587,10 @@
         <v>2019.06</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D233" s="1">
         <v>18713</v>
@@ -12629,10 +12631,10 @@
         <v>2019.06</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D234" s="1">
         <v>12860</v>
@@ -12673,10 +12675,10 @@
         <v>2019.06</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C235" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D235" s="1">
         <v>9637</v>
@@ -12717,10 +12719,10 @@
         <v>2019.06</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D236" s="1">
         <v>11690</v>
@@ -12761,10 +12763,10 @@
         <v>2019.06</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C237" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D237" s="1">
         <v>18924</v>
@@ -12805,10 +12807,10 @@
         <v>2019.06</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D238" s="1">
         <v>10178</v>
@@ -12849,10 +12851,10 @@
         <v>2019.06</v>
       </c>
       <c r="B239" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D239" s="1">
         <v>177045</v>
@@ -12893,10 +12895,10 @@
         <v>2019.06</v>
       </c>
       <c r="B240" t="s">
+        <v>251</v>
+      </c>
+      <c r="C240" t="s">
         <v>252</v>
-      </c>
-      <c r="C240" t="s">
-        <v>253</v>
       </c>
       <c r="D240" s="1">
         <v>10451</v>
@@ -12937,10 +12939,10 @@
         <v>2019.06</v>
       </c>
       <c r="B241" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C241" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D241" s="1">
         <v>12984</v>
@@ -12981,10 +12983,10 @@
         <v>2019.06</v>
       </c>
       <c r="B242" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D242" s="1">
         <v>9873</v>
@@ -13025,10 +13027,10 @@
         <v>2019.06</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D243" s="1">
         <v>10142</v>
@@ -13069,10 +13071,10 @@
         <v>2019.06</v>
       </c>
       <c r="B244" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C244" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D244" s="1">
         <v>10125</v>
@@ -13113,10 +13115,10 @@
         <v>2019.06</v>
       </c>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C245" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D245" s="1">
         <v>8698</v>
@@ -13157,10 +13159,10 @@
         <v>2019.06</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C246" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D246" s="1">
         <v>8223</v>
@@ -13201,10 +13203,10 @@
         <v>2019.06</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D247" s="1">
         <v>6863</v>
@@ -13245,10 +13247,10 @@
         <v>2019.06</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D248" s="1">
         <v>6405</v>
@@ -13289,10 +13291,10 @@
         <v>2019.06</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D249" s="1">
         <v>2525</v>
@@ -13333,10 +13335,10 @@
         <v>2019.06</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D250" s="1">
         <v>9254</v>
@@ -13377,10 +13379,10 @@
         <v>2019.06</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D251" s="1">
         <v>7205</v>
@@ -13421,10 +13423,10 @@
         <v>2019.06</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D252" s="1">
         <v>7130</v>
@@ -13465,10 +13467,10 @@
         <v>2019.06</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D253" s="1">
         <v>17950</v>
@@ -13509,10 +13511,10 @@
         <v>2019.06</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D254" s="1">
         <v>8157</v>
@@ -13553,10 +13555,10 @@
         <v>2019.06</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D255" s="1">
         <v>11536</v>
@@ -13597,10 +13599,10 @@
         <v>2019.06</v>
       </c>
       <c r="B256" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C256" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D256" s="1">
         <v>13530</v>
@@ -13641,10 +13643,10 @@
         <v>2019.06</v>
       </c>
       <c r="B257" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C257" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D257" s="1">
         <v>15994</v>
@@ -13685,10 +13687,10 @@
         <v>2019.06</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D258" s="1">
         <v>261383</v>
@@ -13729,10 +13731,10 @@
         <v>2019.06</v>
       </c>
       <c r="B259" t="s">
+        <v>270</v>
+      </c>
+      <c r="C259" t="s">
         <v>271</v>
-      </c>
-      <c r="C259" t="s">
-        <v>272</v>
       </c>
       <c r="D259" s="1">
         <v>15130</v>
@@ -13773,10 +13775,10 @@
         <v>2019.06</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D260" s="1">
         <v>11971</v>
@@ -13817,10 +13819,10 @@
         <v>2019.06</v>
       </c>
       <c r="B261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D261" s="1">
         <v>8615</v>
@@ -13861,10 +13863,10 @@
         <v>2019.06</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D262" s="1">
         <v>14807</v>
@@ -13905,10 +13907,10 @@
         <v>2019.06</v>
       </c>
       <c r="B263" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D263" s="1">
         <v>16399</v>
@@ -13949,10 +13951,10 @@
         <v>2019.06</v>
       </c>
       <c r="B264" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C264" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D264" s="1">
         <v>8254</v>
@@ -13993,10 +13995,10 @@
         <v>2019.06</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C265" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D265" s="1">
         <v>9374</v>
@@ -14037,10 +14039,10 @@
         <v>2019.06</v>
       </c>
       <c r="B266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D266" s="1">
         <v>9675</v>
@@ -14081,10 +14083,10 @@
         <v>2019.06</v>
       </c>
       <c r="B267" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C267" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D267" s="1">
         <v>11398</v>
@@ -14125,10 +14127,10 @@
         <v>2019.06</v>
       </c>
       <c r="B268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D268" s="1">
         <v>11637</v>
@@ -14169,10 +14171,10 @@
         <v>2019.06</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D269" s="1">
         <v>18863</v>
@@ -14213,10 +14215,10 @@
         <v>2019.06</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D270" s="1">
         <v>8110</v>
@@ -14257,10 +14259,10 @@
         <v>2019.06</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C271" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D271" s="1">
         <v>7922</v>
@@ -14301,10 +14303,10 @@
         <v>2019.06</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D272" s="1">
         <v>13460</v>
@@ -14345,10 +14347,10 @@
         <v>2019.06</v>
       </c>
       <c r="B273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D273" s="1">
         <v>12757</v>
@@ -14389,10 +14391,10 @@
         <v>2019.06</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C274" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D274" s="1">
         <v>17434</v>
@@ -14433,10 +14435,10 @@
         <v>2019.06</v>
       </c>
       <c r="B275" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C275" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D275" s="1">
         <v>11617</v>
@@ -14477,10 +14479,10 @@
         <v>2019.06</v>
       </c>
       <c r="B276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C276" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D276" s="1">
         <v>11235</v>
@@ -14521,10 +14523,10 @@
         <v>2019.06</v>
       </c>
       <c r="B277" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C277" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D277" s="1">
         <v>26149</v>
@@ -14565,10 +14567,10 @@
         <v>2019.06</v>
       </c>
       <c r="B278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C278" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D278" s="1">
         <v>16576</v>
@@ -14609,10 +14611,10 @@
         <v>2019.06</v>
       </c>
       <c r="B279" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D279" s="1">
         <v>174505</v>
@@ -14653,10 +14655,10 @@
         <v>2019.06</v>
       </c>
       <c r="B280" t="s">
+        <v>291</v>
+      </c>
+      <c r="C280" t="s">
         <v>292</v>
-      </c>
-      <c r="C280" t="s">
-        <v>293</v>
       </c>
       <c r="D280" s="1">
         <v>13471</v>
@@ -14697,10 +14699,10 @@
         <v>2019.06</v>
       </c>
       <c r="B281" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C281" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D281" s="1">
         <v>7883</v>
@@ -14741,10 +14743,10 @@
         <v>2019.06</v>
       </c>
       <c r="B282" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C282" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D282" s="1">
         <v>13241</v>
@@ -14785,10 +14787,10 @@
         <v>2019.06</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C283" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D283" s="1">
         <v>10582</v>
@@ -14829,10 +14831,10 @@
         <v>2019.06</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C284" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D284" s="1">
         <v>14418</v>
@@ -14873,10 +14875,10 @@
         <v>2019.06</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C285" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D285" s="1">
         <v>9543</v>
@@ -14917,10 +14919,10 @@
         <v>2019.06</v>
       </c>
       <c r="B286" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C286" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D286" s="1">
         <v>11659</v>
@@ -14961,10 +14963,10 @@
         <v>2019.06</v>
       </c>
       <c r="B287" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D287" s="1">
         <v>12644</v>
@@ -15005,10 +15007,10 @@
         <v>2019.06</v>
       </c>
       <c r="B288" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C288" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D288" s="1">
         <v>8842</v>
@@ -15049,10 +15051,10 @@
         <v>2019.06</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D289" s="1">
         <v>10743</v>
@@ -15093,10 +15095,10 @@
         <v>2019.06</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D290" s="1">
         <v>18938</v>
@@ -15137,10 +15139,10 @@
         <v>2019.06</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D291" s="1">
         <v>9847</v>
@@ -15181,10 +15183,10 @@
         <v>2019.06</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D292" s="1">
         <v>5865</v>
@@ -15225,10 +15227,10 @@
         <v>2019.06</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D293" s="1">
         <v>12823</v>
@@ -15269,10 +15271,10 @@
         <v>2019.06</v>
       </c>
       <c r="B294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C294" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D294" s="1">
         <v>14006</v>
@@ -15313,10 +15315,10 @@
         <v>2019.06</v>
       </c>
       <c r="B295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C295" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D295" s="1">
         <v>109708</v>
@@ -15357,10 +15359,10 @@
         <v>2019.06</v>
       </c>
       <c r="B296" t="s">
+        <v>307</v>
+      </c>
+      <c r="C296" t="s">
         <v>308</v>
-      </c>
-      <c r="C296" t="s">
-        <v>309</v>
       </c>
       <c r="D296" s="1">
         <v>13489</v>
@@ -15401,10 +15403,10 @@
         <v>2019.06</v>
       </c>
       <c r="B297" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C297" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D297" s="1">
         <v>19671</v>
@@ -15445,10 +15447,10 @@
         <v>2019.06</v>
       </c>
       <c r="B298" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C298" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D298" s="1">
         <v>9288</v>
@@ -15489,10 +15491,10 @@
         <v>2019.06</v>
       </c>
       <c r="B299" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C299" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D299" s="1">
         <v>12277</v>
@@ -15533,10 +15535,10 @@
         <v>2019.06</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C300" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D300" s="1">
         <v>7622</v>
@@ -15577,10 +15579,10 @@
         <v>2019.06</v>
       </c>
       <c r="B301" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C301" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D301" s="1">
         <v>15817</v>
@@ -15621,10 +15623,10 @@
         <v>2019.06</v>
       </c>
       <c r="B302" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C302" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D302" s="1">
         <v>8425</v>
@@ -15665,10 +15667,10 @@
         <v>2019.06</v>
       </c>
       <c r="B303" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C303" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D303" s="1">
         <v>4723</v>
@@ -15709,10 +15711,10 @@
         <v>2019.06</v>
       </c>
       <c r="B304" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C304" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D304" s="1">
         <v>9066</v>
@@ -15753,10 +15755,10 @@
         <v>2019.06</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D305" s="1">
         <v>9330</v>
@@ -15797,10 +15799,10 @@
         <v>2019.06</v>
       </c>
       <c r="B306" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C306" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D306" s="1">
         <v>173701</v>
@@ -15841,10 +15843,10 @@
         <v>2019.06</v>
       </c>
       <c r="B307" t="s">
+        <v>318</v>
+      </c>
+      <c r="C307" t="s">
         <v>319</v>
-      </c>
-      <c r="C307" t="s">
-        <v>320</v>
       </c>
       <c r="D307" s="1">
         <v>13374</v>
@@ -15885,10 +15887,10 @@
         <v>2019.06</v>
       </c>
       <c r="B308" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C308" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D308" s="1">
         <v>10500</v>
@@ -15929,10 +15931,10 @@
         <v>2019.06</v>
       </c>
       <c r="B309" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C309" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D309" s="1">
         <v>17216</v>
@@ -15973,10 +15975,10 @@
         <v>2019.06</v>
       </c>
       <c r="B310" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C310" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D310" s="1">
         <v>8884</v>
@@ -16017,10 +16019,10 @@
         <v>2019.06</v>
       </c>
       <c r="B311" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C311" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D311" s="1">
         <v>10120</v>
@@ -16061,10 +16063,10 @@
         <v>2019.06</v>
       </c>
       <c r="B312" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C312" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D312" s="1">
         <v>9892</v>
@@ -16105,10 +16107,10 @@
         <v>2019.06</v>
       </c>
       <c r="B313" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C313" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D313" s="1">
         <v>7557</v>
@@ -16149,10 +16151,10 @@
         <v>2019.06</v>
       </c>
       <c r="B314" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C314" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D314" s="1">
         <v>4278</v>
@@ -16193,10 +16195,10 @@
         <v>2019.06</v>
       </c>
       <c r="B315" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C315" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D315" s="1">
         <v>4222</v>
@@ -16237,10 +16239,10 @@
         <v>2019.06</v>
       </c>
       <c r="B316" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D316" s="1">
         <v>8417</v>
@@ -16281,10 +16283,10 @@
         <v>2019.06</v>
       </c>
       <c r="B317" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D317" s="1">
         <v>6553</v>
@@ -16325,10 +16327,10 @@
         <v>2019.06</v>
       </c>
       <c r="B318" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C318" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D318" s="1">
         <v>6370</v>
@@ -16369,10 +16371,10 @@
         <v>2019.06</v>
       </c>
       <c r="B319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D319" s="1">
         <v>6843</v>
@@ -16413,10 +16415,10 @@
         <v>2019.06</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D320" s="1">
         <v>10561</v>
@@ -16457,10 +16459,10 @@
         <v>2019.06</v>
       </c>
       <c r="B321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C321" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D321" s="1">
         <v>10188</v>
@@ -16501,10 +16503,10 @@
         <v>2019.06</v>
       </c>
       <c r="B322" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C322" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D322" s="1">
         <v>16959</v>
@@ -16545,10 +16547,10 @@
         <v>2019.06</v>
       </c>
       <c r="B323" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C323" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D323" s="1">
         <v>9284</v>
@@ -16589,10 +16591,10 @@
         <v>2019.06</v>
       </c>
       <c r="B324" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C324" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D324" s="1">
         <v>12483</v>
@@ -16633,10 +16635,10 @@
         <v>2019.06</v>
       </c>
       <c r="B325" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C325" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D325" s="1">
         <v>180463</v>
@@ -16677,10 +16679,10 @@
         <v>2019.06</v>
       </c>
       <c r="B326" t="s">
+        <v>337</v>
+      </c>
+      <c r="C326" t="s">
         <v>338</v>
-      </c>
-      <c r="C326" t="s">
-        <v>339</v>
       </c>
       <c r="D326" s="1">
         <v>7210</v>
@@ -16721,10 +16723,10 @@
         <v>2019.06</v>
       </c>
       <c r="B327" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C327" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D327" s="1">
         <v>21360</v>
@@ -16765,10 +16767,10 @@
         <v>2019.06</v>
       </c>
       <c r="B328" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C328" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D328" s="1">
         <v>12813</v>
@@ -16809,10 +16811,10 @@
         <v>2019.06</v>
       </c>
       <c r="B329" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C329" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D329" s="1">
         <v>11800</v>
@@ -16853,10 +16855,10 @@
         <v>2019.06</v>
       </c>
       <c r="B330" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C330" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D330" s="1">
         <v>13439</v>
@@ -16897,10 +16899,10 @@
         <v>2019.06</v>
       </c>
       <c r="B331" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C331" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D331" s="1">
         <v>13030</v>
@@ -16941,10 +16943,10 @@
         <v>2019.06</v>
       </c>
       <c r="B332" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C332" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D332" s="1">
         <v>10731</v>
@@ -16985,10 +16987,10 @@
         <v>2019.06</v>
       </c>
       <c r="B333" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C333" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D333" s="1">
         <v>6981</v>
@@ -17029,10 +17031,10 @@
         <v>2019.06</v>
       </c>
       <c r="B334" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C334" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D334" s="1">
         <v>5727</v>
@@ -17073,10 +17075,10 @@
         <v>2019.06</v>
       </c>
       <c r="B335" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D335" s="1">
         <v>17070</v>
@@ -17117,10 +17119,10 @@
         <v>2019.06</v>
       </c>
       <c r="B336" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D336" s="1">
         <v>9832</v>
@@ -17161,10 +17163,10 @@
         <v>2019.06</v>
       </c>
       <c r="B337" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D337" s="1">
         <v>9275</v>
@@ -17205,10 +17207,10 @@
         <v>2019.06</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C338" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D338" s="1">
         <v>14306</v>
@@ -17249,10 +17251,10 @@
         <v>2019.06</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C339" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D339" s="1">
         <v>14941</v>
@@ -17293,10 +17295,10 @@
         <v>2019.06</v>
       </c>
       <c r="B340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C340" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D340" s="1">
         <v>11948</v>
@@ -17337,10 +17339,10 @@
         <v>2019.06</v>
       </c>
       <c r="B341" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C341" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D341" s="1">
         <v>266692</v>
@@ -17381,10 +17383,10 @@
         <v>2019.06</v>
       </c>
       <c r="B342" t="s">
+        <v>353</v>
+      </c>
+      <c r="C342" t="s">
         <v>354</v>
-      </c>
-      <c r="C342" t="s">
-        <v>355</v>
       </c>
       <c r="D342" s="1">
         <v>12254</v>
@@ -17425,10 +17427,10 @@
         <v>2019.06</v>
       </c>
       <c r="B343" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C343" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D343" s="1">
         <v>6569</v>
@@ -17469,10 +17471,10 @@
         <v>2019.06</v>
       </c>
       <c r="B344" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C344" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D344" s="1">
         <v>17120</v>
@@ -17513,10 +17515,10 @@
         <v>2019.06</v>
       </c>
       <c r="B345" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C345" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D345" s="1">
         <v>10741</v>
@@ -17557,10 +17559,10 @@
         <v>2019.06</v>
       </c>
       <c r="B346" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C346" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D346" s="1">
         <v>9227</v>
@@ -17601,10 +17603,10 @@
         <v>2019.06</v>
       </c>
       <c r="B347" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C347" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D347" s="1">
         <v>14034</v>
@@ -17645,10 +17647,10 @@
         <v>2019.06</v>
       </c>
       <c r="B348" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C348" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D348" s="1">
         <v>9333</v>
@@ -17689,10 +17691,10 @@
         <v>2019.06</v>
       </c>
       <c r="B349" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C349" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D349" s="1">
         <v>13763</v>
@@ -17733,10 +17735,10 @@
         <v>2019.06</v>
       </c>
       <c r="B350" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C350" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D350" s="1">
         <v>10443</v>
@@ -17777,10 +17779,10 @@
         <v>2019.06</v>
       </c>
       <c r="B351" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D351" s="1">
         <v>14193</v>
@@ -17821,10 +17823,10 @@
         <v>2019.06</v>
       </c>
       <c r="B352" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D352" s="1">
         <v>13222</v>
@@ -17865,10 +17867,10 @@
         <v>2019.06</v>
       </c>
       <c r="B353" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D353" s="1">
         <v>16654</v>
@@ -17909,10 +17911,10 @@
         <v>2019.06</v>
       </c>
       <c r="B354" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C354" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D354" s="1">
         <v>6468</v>
@@ -17953,10 +17955,10 @@
         <v>2019.06</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C355" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D355" s="1">
         <v>10147</v>
@@ -17997,10 +17999,10 @@
         <v>2019.06</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C356" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D356" s="1">
         <v>15786</v>
@@ -18041,10 +18043,10 @@
         <v>2019.06</v>
       </c>
       <c r="B357" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C357" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D357" s="1">
         <v>15887</v>
@@ -18085,10 +18087,10 @@
         <v>2019.06</v>
       </c>
       <c r="B358" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C358" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D358" s="1">
         <v>12981</v>
@@ -18129,10 +18131,10 @@
         <v>2019.06</v>
       </c>
       <c r="B359" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C359" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D359" s="1">
         <v>19366</v>
@@ -18173,10 +18175,10 @@
         <v>2019.06</v>
       </c>
       <c r="B360" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C360" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D360" s="1">
         <v>12875</v>
@@ -18217,10 +18219,10 @@
         <v>2019.06</v>
       </c>
       <c r="B361" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C361" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D361" s="1">
         <v>11502</v>
@@ -18261,10 +18263,10 @@
         <v>2019.06</v>
       </c>
       <c r="B362" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C362" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D362" s="1">
         <v>14127</v>
@@ -18305,10 +18307,10 @@
         <v>2019.06</v>
       </c>
       <c r="B363" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C363" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D363" s="1">
         <v>172907</v>
@@ -18349,10 +18351,10 @@
         <v>2019.06</v>
       </c>
       <c r="B364" t="s">
+        <v>375</v>
+      </c>
+      <c r="C364" t="s">
         <v>376</v>
-      </c>
-      <c r="C364" t="s">
-        <v>377</v>
       </c>
       <c r="D364" s="1">
         <v>9264</v>
@@ -18393,10 +18395,10 @@
         <v>2019.06</v>
       </c>
       <c r="B365" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C365" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D365" s="1">
         <v>8247</v>
@@ -18437,10 +18439,10 @@
         <v>2019.06</v>
       </c>
       <c r="B366" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C366" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D366" s="1">
         <v>13399</v>
@@ -18481,10 +18483,10 @@
         <v>2019.06</v>
       </c>
       <c r="B367" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C367" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D367" s="1">
         <v>11010</v>
@@ -18525,10 +18527,10 @@
         <v>2019.06</v>
       </c>
       <c r="B368" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C368" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D368" s="1">
         <v>13900</v>
@@ -18569,10 +18571,10 @@
         <v>2019.06</v>
       </c>
       <c r="B369" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C369" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D369" s="1">
         <v>4173</v>
@@ -18613,10 +18615,10 @@
         <v>2019.06</v>
       </c>
       <c r="B370" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C370" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D370" s="1">
         <v>14393</v>
@@ -18657,10 +18659,10 @@
         <v>2019.06</v>
       </c>
       <c r="B371" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C371" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D371" s="1">
         <v>5165</v>
@@ -18701,10 +18703,10 @@
         <v>2019.06</v>
       </c>
       <c r="B372" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C372" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D372" s="1">
         <v>7007</v>
@@ -18745,10 +18747,10 @@
         <v>2019.06</v>
       </c>
       <c r="B373" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D373" s="1">
         <v>7376</v>
@@ -18789,10 +18791,10 @@
         <v>2019.06</v>
       </c>
       <c r="B374" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D374" s="1">
         <v>7892</v>
@@ -18833,10 +18835,10 @@
         <v>2019.06</v>
       </c>
       <c r="B375" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C375" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D375" s="1">
         <v>7588</v>
@@ -18877,10 +18879,10 @@
         <v>2019.06</v>
       </c>
       <c r="B376" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C376" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D376" s="1">
         <v>8896</v>
@@ -18921,10 +18923,10 @@
         <v>2019.06</v>
       </c>
       <c r="B377" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C377" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D377" s="1">
         <v>8524</v>
@@ -18965,10 +18967,10 @@
         <v>2019.06</v>
       </c>
       <c r="B378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C378" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D378" s="1">
         <v>9775</v>
@@ -19009,10 +19011,10 @@
         <v>2019.06</v>
       </c>
       <c r="B379" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C379" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D379" s="1">
         <v>18224</v>
@@ -19053,10 +19055,10 @@
         <v>2019.06</v>
       </c>
       <c r="B380" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C380" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D380" s="1">
         <v>10812</v>
@@ -19097,10 +19099,10 @@
         <v>2019.06</v>
       </c>
       <c r="B381" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C381" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D381" s="1">
         <v>7262</v>
@@ -19141,10 +19143,10 @@
         <v>2019.06</v>
       </c>
       <c r="B382" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C382" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D382" s="1">
         <v>230752</v>
@@ -19185,10 +19187,10 @@
         <v>2019.06</v>
       </c>
       <c r="B383" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C383" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D383" s="1">
         <v>7496</v>
@@ -19229,10 +19231,10 @@
         <v>2019.06</v>
       </c>
       <c r="B384" t="s">
+        <v>394</v>
+      </c>
+      <c r="C384" t="s">
         <v>395</v>
-      </c>
-      <c r="C384" t="s">
-        <v>396</v>
       </c>
       <c r="D384" s="1">
         <v>14147</v>
@@ -19273,10 +19275,10 @@
         <v>2019.06</v>
       </c>
       <c r="B385" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C385" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D385" s="1">
         <v>11343</v>
@@ -19317,10 +19319,10 @@
         <v>2019.06</v>
       </c>
       <c r="B386" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C386" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D386" s="1">
         <v>5931</v>
@@ -19361,10 +19363,10 @@
         <v>2019.06</v>
       </c>
       <c r="B387" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C387" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D387" s="1">
         <v>13216</v>
@@ -19405,10 +19407,10 @@
         <v>2019.06</v>
       </c>
       <c r="B388" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C388" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D388" s="1">
         <v>7406</v>
@@ -19449,10 +19451,10 @@
         <v>2019.06</v>
       </c>
       <c r="B389" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C389" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D389" s="1">
         <v>10148</v>
@@ -19493,10 +19495,10 @@
         <v>2019.06</v>
       </c>
       <c r="B390" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C390" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D390" s="1">
         <v>23413</v>
@@ -19537,10 +19539,10 @@
         <v>2019.06</v>
       </c>
       <c r="B391" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C391" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D391" s="1">
         <v>15291</v>
@@ -19581,10 +19583,10 @@
         <v>2019.06</v>
       </c>
       <c r="B392" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C392" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D392" s="1">
         <v>8555</v>
@@ -19625,10 +19627,10 @@
         <v>2019.06</v>
       </c>
       <c r="B393" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D393" s="1">
         <v>11846</v>
@@ -19669,10 +19671,10 @@
         <v>2019.06</v>
       </c>
       <c r="B394" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D394" s="1">
         <v>2803</v>
@@ -19713,10 +19715,10 @@
         <v>2019.06</v>
       </c>
       <c r="B395" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C395" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D395" s="1">
         <v>7766</v>
@@ -19757,10 +19759,10 @@
         <v>2019.06</v>
       </c>
       <c r="B396" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C396" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D396" s="1">
         <v>8203</v>
@@ -19801,10 +19803,10 @@
         <v>2019.06</v>
       </c>
       <c r="B397" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C397" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D397" s="1">
         <v>7546</v>
@@ -19845,10 +19847,10 @@
         <v>2019.06</v>
       </c>
       <c r="B398" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C398" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D398" s="1">
         <v>7279</v>
@@ -19889,10 +19891,10 @@
         <v>2019.06</v>
       </c>
       <c r="B399" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C399" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D399" s="1">
         <v>7850</v>
@@ -19933,10 +19935,10 @@
         <v>2019.06</v>
       </c>
       <c r="B400" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C400" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D400" s="1">
         <v>17718</v>
@@ -19977,10 +19979,10 @@
         <v>2019.06</v>
       </c>
       <c r="B401" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C401" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D401" s="1">
         <v>10742</v>
@@ -20021,10 +20023,10 @@
         <v>2019.06</v>
       </c>
       <c r="B402" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C402" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D402" s="1">
         <v>12510</v>
@@ -20065,10 +20067,10 @@
         <v>2019.06</v>
       </c>
       <c r="B403" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C403" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D403" s="1">
         <v>13003</v>
@@ -20109,10 +20111,10 @@
         <v>2019.06</v>
       </c>
       <c r="B404" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C404" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D404" s="1">
         <v>6540</v>
@@ -20153,10 +20155,10 @@
         <v>2019.06</v>
       </c>
       <c r="B405" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C405" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D405" s="1">
         <v>278223</v>
@@ -20197,10 +20199,10 @@
         <v>2019.06</v>
       </c>
       <c r="B406" t="s">
+        <v>416</v>
+      </c>
+      <c r="C406" t="s">
         <v>417</v>
-      </c>
-      <c r="C406" t="s">
-        <v>418</v>
       </c>
       <c r="D406" s="1">
         <v>6629</v>
@@ -20241,10 +20243,10 @@
         <v>2019.06</v>
       </c>
       <c r="B407" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C407" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D407" s="1">
         <v>10449</v>
@@ -20285,10 +20287,10 @@
         <v>2019.06</v>
       </c>
       <c r="B408" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C408" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D408" s="1">
         <v>5438</v>
@@ -20329,10 +20331,10 @@
         <v>2019.06</v>
       </c>
       <c r="B409" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C409" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D409" s="1">
         <v>7231</v>
@@ -20373,10 +20375,10 @@
         <v>2019.06</v>
       </c>
       <c r="B410" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C410" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D410" s="1">
         <v>9120</v>
@@ -20417,10 +20419,10 @@
         <v>2019.06</v>
       </c>
       <c r="B411" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C411" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D411" s="1">
         <v>8659</v>
@@ -20461,10 +20463,10 @@
         <v>2019.06</v>
       </c>
       <c r="B412" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C412" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D412" s="1">
         <v>6226</v>
@@ -20505,10 +20507,10 @@
         <v>2019.06</v>
       </c>
       <c r="B413" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C413" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D413" s="1">
         <v>13400</v>
@@ -20549,10 +20551,10 @@
         <v>2019.06</v>
       </c>
       <c r="B414" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C414" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D414" s="1">
         <v>5986</v>
@@ -20593,10 +20595,10 @@
         <v>2019.06</v>
       </c>
       <c r="B415" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D415" s="1">
         <v>15724</v>
@@ -20637,10 +20639,10 @@
         <v>2019.06</v>
       </c>
       <c r="B416" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D416" s="1">
         <v>12440</v>
@@ -20681,10 +20683,10 @@
         <v>2019.06</v>
       </c>
       <c r="B417" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C417" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D417" s="1">
         <v>7305</v>
@@ -20725,10 +20727,10 @@
         <v>2019.06</v>
       </c>
       <c r="B418" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C418" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D418" s="1">
         <v>16708</v>
@@ -20769,10 +20771,10 @@
         <v>2019.06</v>
       </c>
       <c r="B419" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C419" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D419" s="1">
         <v>16301</v>
@@ -20813,10 +20815,10 @@
         <v>2019.06</v>
       </c>
       <c r="B420" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C420" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D420" s="1">
         <v>11808</v>
@@ -20857,10 +20859,10 @@
         <v>2019.06</v>
       </c>
       <c r="B421" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C421" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D421" s="1">
         <v>9356</v>
@@ -20901,10 +20903,10 @@
         <v>2019.06</v>
       </c>
       <c r="B422" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C422" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D422" s="1">
         <v>12266</v>
@@ -20945,10 +20947,10 @@
         <v>2019.06</v>
       </c>
       <c r="B423" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C423" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D423" s="1">
         <v>8547</v>
@@ -20989,10 +20991,10 @@
         <v>2019.06</v>
       </c>
       <c r="B424" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C424" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D424" s="1">
         <v>15415</v>
@@ -21033,10 +21035,10 @@
         <v>2019.06</v>
       </c>
       <c r="B425" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C425" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D425" s="1">
         <v>13391</v>
@@ -21077,10 +21079,10 @@
         <v>2019.06</v>
       </c>
       <c r="B426" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C426" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D426" s="1">
         <v>9016</v>
@@ -21121,10 +21123,10 @@
         <v>2019.06</v>
       </c>
       <c r="B427" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C427" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D427" s="1">
         <v>14992</v>
@@ -21165,10 +21167,10 @@
         <v>2019.06</v>
       </c>
       <c r="B428" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C428" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D428" s="1">
         <v>8123</v>
@@ -21209,10 +21211,10 @@
         <v>2019.06</v>
       </c>
       <c r="B429" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C429" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D429" s="1">
         <v>5938</v>
@@ -21253,10 +21255,10 @@
         <v>2019.06</v>
       </c>
       <c r="B430" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C430" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D430" s="1">
         <v>3473</v>
@@ -21297,10 +21299,10 @@
         <v>2019.06</v>
       </c>
       <c r="B431" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C431" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D431" s="1">
         <v>12003</v>
@@ -21341,10 +21343,10 @@
         <v>2019.06</v>
       </c>
       <c r="B432" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C432" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D432" s="1">
         <v>12279</v>
@@ -21385,10 +21387,10 @@
         <v>2019.06</v>
       </c>
       <c r="B433" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C433" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="D433" s="1">
         <v>177368</v>
@@ -21429,10 +21431,10 @@
         <v>2019.06</v>
       </c>
       <c r="B434" t="s">
+        <v>444</v>
+      </c>
+      <c r="C434" t="s">
         <v>445</v>
-      </c>
-      <c r="C434" t="s">
-        <v>446</v>
       </c>
       <c r="D434" s="1">
         <v>11190</v>
@@ -21473,10 +21475,10 @@
         <v>2019.06</v>
       </c>
       <c r="B435" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C435" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D435" s="1">
         <v>4192</v>
@@ -21517,10 +21519,10 @@
         <v>2019.06</v>
       </c>
       <c r="B436" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C436" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D436" s="1">
         <v>8179</v>
@@ -21561,10 +21563,10 @@
         <v>2019.06</v>
       </c>
       <c r="B437" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C437" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D437" s="1">
         <v>6019</v>
@@ -21605,10 +21607,10 @@
         <v>2019.06</v>
       </c>
       <c r="B438" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C438" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D438" s="1">
         <v>9126</v>
@@ -21649,10 +21651,10 @@
         <v>2019.06</v>
       </c>
       <c r="B439" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C439" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D439" s="1">
         <v>3353</v>
@@ -21693,10 +21695,10 @@
         <v>2019.06</v>
       </c>
       <c r="B440" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C440" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D440" s="1">
         <v>5902</v>
@@ -21737,10 +21739,10 @@
         <v>2019.06</v>
       </c>
       <c r="B441" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C441" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D441" s="1">
         <v>6373</v>
@@ -21781,10 +21783,10 @@
         <v>2019.06</v>
       </c>
       <c r="B442" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C442" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D442" s="1">
         <v>12840</v>
@@ -21825,10 +21827,10 @@
         <v>2019.06</v>
       </c>
       <c r="B443" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D443" s="1">
         <v>13677</v>
@@ -21869,10 +21871,10 @@
         <v>2019.06</v>
       </c>
       <c r="B444" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C444" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D444" s="1">
         <v>8136</v>
@@ -21913,10 +21915,10 @@
         <v>2019.06</v>
       </c>
       <c r="B445" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C445" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D445" s="1">
         <v>12509</v>
@@ -21957,10 +21959,10 @@
         <v>2019.06</v>
       </c>
       <c r="B446" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D446" s="1">
         <v>10201</v>
@@ -22001,10 +22003,10 @@
         <v>2019.06</v>
       </c>
       <c r="B447" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C447" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D447">
         <v>167</v>
@@ -22045,10 +22047,10 @@
         <v>2019.06</v>
       </c>
       <c r="B448" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C448" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D448" s="1">
         <v>11185</v>
@@ -22089,10 +22091,10 @@
         <v>2019.06</v>
       </c>
       <c r="B449" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C449" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D449" s="1">
         <v>16211</v>
@@ -22133,10 +22135,10 @@
         <v>2019.06</v>
       </c>
       <c r="B450" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C450" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D450" s="1">
         <v>17661</v>
@@ -22177,10 +22179,10 @@
         <v>2019.06</v>
       </c>
       <c r="B451" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C451" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D451" s="1">
         <v>20447</v>
